--- a/BackTest/2019-10-18 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-18 BackTest ETZ.xlsx
@@ -951,7 +951,9 @@
       <c r="J12" t="n">
         <v>1.399999999999991</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-57.14285714285728</v>
+      </c>
       <c r="L12" t="n">
         <v>93.98999999999998</v>
       </c>
@@ -1002,7 +1004,9 @@
       <c r="J13" t="n">
         <v>1.5</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-46.6666666666659</v>
+      </c>
       <c r="L13" t="n">
         <v>93.91999999999997</v>
       </c>
@@ -1053,7 +1057,9 @@
       <c r="J14" t="n">
         <v>1.5</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>93.84999999999997</v>
       </c>
@@ -1104,7 +1110,9 @@
       <c r="J15" t="n">
         <v>1.600000000000009</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-11.11111111111181</v>
+      </c>
       <c r="L15" t="n">
         <v>93.83999999999997</v>
       </c>
@@ -1153,7 +1161,9 @@
       <c r="J16" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>93.83999999999997</v>
       </c>
@@ -1204,7 +1214,9 @@
       <c r="J17" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>93.83999999999997</v>
       </c>
@@ -1255,7 +1267,9 @@
       <c r="J18" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>93.83999999999997</v>
       </c>
@@ -1306,7 +1320,9 @@
       <c r="J19" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>93.83999999999997</v>
       </c>
@@ -1357,7 +1373,9 @@
       <c r="J20" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>66.66666666666508</v>
+      </c>
       <c r="L20" t="n">
         <v>93.83999999999997</v>
       </c>
@@ -1408,7 +1426,9 @@
       <c r="J21" t="n">
         <v>2.000000000000014</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>66.66666666666508</v>
+      </c>
       <c r="L21" t="n">
         <v>93.90999999999997</v>
       </c>
@@ -1461,7 +1481,9 @@
       <c r="J22" t="n">
         <v>2.500000000000014</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>79.99999999999858</v>
+      </c>
       <c r="L22" t="n">
         <v>93.99999999999997</v>
       </c>
@@ -1515,7 +1537,7 @@
         <v>2.500000000000014</v>
       </c>
       <c r="K23" t="n">
-        <v>4.000000000000319</v>
+        <v>79.99999999999858</v>
       </c>
       <c r="L23" t="n">
         <v>94.07999999999998</v>
@@ -1570,7 +1592,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K24" t="n">
-        <v>7.692307692307776</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>94.16999999999999</v>
@@ -1625,7 +1647,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K25" t="n">
-        <v>47.36842105263063</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>94.27000000000001</v>
@@ -1680,7 +1702,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K26" t="n">
-        <v>47.36842105263063</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>94.36</v>
@@ -1735,7 +1757,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K27" t="n">
-        <v>47.36842105263063</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>94.45000000000002</v>
@@ -1790,7 +1812,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K28" t="n">
-        <v>47.36842105263063</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>94.54000000000002</v>
@@ -1845,7 +1867,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K29" t="n">
-        <v>47.36842105263063</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>94.63000000000002</v>
@@ -1900,7 +1922,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K30" t="n">
-        <v>47.36842105263063</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>94.72000000000004</v>
@@ -1955,7 +1977,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K31" t="n">
-        <v>86.66666666666566</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>94.78000000000004</v>
@@ -2012,7 +2034,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K32" t="n">
-        <v>83.33333333333215</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
         <v>94.79000000000003</v>
@@ -2068,9 +2090,7 @@
       <c r="J33" t="n">
         <v>2.600000000000009</v>
       </c>
-      <c r="K33" t="n">
-        <v>81.81818181818042</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>94.80000000000003</v>
       </c>
@@ -2125,9 +2145,7 @@
       <c r="J34" t="n">
         <v>2.600000000000009</v>
       </c>
-      <c r="K34" t="n">
-        <v>81.81818181818042</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>94.80000000000003</v>
       </c>
@@ -2176,9 +2194,7 @@
       <c r="J35" t="n">
         <v>2.600000000000009</v>
       </c>
-      <c r="K35" t="n">
-        <v>100</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>94.80000000000003</v>
       </c>
